--- a/data/xlsx/Job.xlsx
+++ b/data/xlsx/Job.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT81"/>
+  <dimension ref="A1:DT86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -33258,6 +33258,1948 @@
       <c r="DS81" t="inlineStr"/>
       <c r="DT81" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JID_幻影飛竜</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AID_幻影飛竜</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MJID_PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MJID_H_PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>715PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>715PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>龙族</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" t="n">
+        <v>8</v>
+      </c>
+      <c r="M82" t="n">
+        <v>40</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>70</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>28</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>30</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>50</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>35</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>50</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>50</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE82" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI82" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CJ82" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA82" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB82" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC82" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE82" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF82" t="n">
+        <v>20</v>
+      </c>
+      <c r="DG82" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK82" t="inlineStr"/>
+      <c r="DL82" t="inlineStr"/>
+      <c r="DM82" t="inlineStr"/>
+      <c r="DN82" t="inlineStr"/>
+      <c r="DO82" t="inlineStr"/>
+      <c r="DP82" t="inlineStr"/>
+      <c r="DQ82" t="inlineStr"/>
+      <c r="DR82" t="inlineStr">
+        <is>
+          <t>SID_氷の領域</t>
+        </is>
+      </c>
+      <c r="DS82" t="inlineStr">
+        <is>
+          <t>减气</t>
+        </is>
+      </c>
+      <c r="DT82" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>JID_紋章士_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AID_紋章士_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MJID_H_EmblemB</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>563Edelgard</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>连携</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" t="n">
+        <v>40</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>66</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE83" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI83" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CJ83" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK83" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ83" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA83" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB83" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC83" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE83" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF83" t="n">
+        <v>15</v>
+      </c>
+      <c r="DG83" t="n">
+        <v>20</v>
+      </c>
+      <c r="DH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK83" t="inlineStr"/>
+      <c r="DL83" t="inlineStr"/>
+      <c r="DM83" t="inlineStr"/>
+      <c r="DN83" t="inlineStr"/>
+      <c r="DO83" t="inlineStr"/>
+      <c r="DP83" t="inlineStr"/>
+      <c r="DQ83" t="inlineStr"/>
+      <c r="DR83" t="inlineStr"/>
+      <c r="DS83" t="inlineStr"/>
+      <c r="DT83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JID_紋章士_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AID_紋章士_ディミトリ</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MJID_H_EmblemB</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>514Dimitri</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>连携</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8</v>
+      </c>
+      <c r="M84" t="n">
+        <v>40</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>66</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CJ84" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK84" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC84" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE84" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF84" t="n">
+        <v>15</v>
+      </c>
+      <c r="DG84" t="n">
+        <v>20</v>
+      </c>
+      <c r="DH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK84" t="inlineStr"/>
+      <c r="DL84" t="inlineStr"/>
+      <c r="DM84" t="inlineStr"/>
+      <c r="DN84" t="inlineStr"/>
+      <c r="DO84" t="inlineStr"/>
+      <c r="DP84" t="inlineStr"/>
+      <c r="DQ84" t="inlineStr"/>
+      <c r="DR84" t="inlineStr"/>
+      <c r="DS84" t="inlineStr"/>
+      <c r="DT84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JID_紋章士_クロード</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>AID_紋章士_クロード</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MJID_H_EmblemB</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>515Claude</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>连携</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8</v>
+      </c>
+      <c r="M85" t="n">
+        <v>40</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>66</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>35</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA85" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB85" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC85" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE85" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF85" t="n">
+        <v>15</v>
+      </c>
+      <c r="DG85" t="n">
+        <v>20</v>
+      </c>
+      <c r="DH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK85" t="inlineStr"/>
+      <c r="DL85" t="inlineStr"/>
+      <c r="DM85" t="inlineStr"/>
+      <c r="DN85" t="inlineStr"/>
+      <c r="DO85" t="inlineStr"/>
+      <c r="DP85" t="inlineStr"/>
+      <c r="DQ85" t="inlineStr"/>
+      <c r="DR85" t="inlineStr"/>
+      <c r="DS85" t="inlineStr"/>
+      <c r="DT85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JID_紋章士_チキ</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AID_紋章士_チキ</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MJID_H_EmblemB</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>560Tiki</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>龙族</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>8</v>
+      </c>
+      <c r="M86" t="n">
+        <v>40</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>54</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>55</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>50</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>75</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>45</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>60</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI86" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ86" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA86" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB86" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC86" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE86" t="n">
+        <v>20</v>
+      </c>
+      <c r="DF86" t="n">
+        <v>20</v>
+      </c>
+      <c r="DG86" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK86" t="inlineStr"/>
+      <c r="DL86" t="inlineStr"/>
+      <c r="DM86" t="inlineStr"/>
+      <c r="DN86" t="inlineStr"/>
+      <c r="DO86" t="inlineStr"/>
+      <c r="DP86" t="inlineStr"/>
+      <c r="DQ86" t="inlineStr"/>
+      <c r="DR86" t="inlineStr"/>
+      <c r="DS86" t="inlineStr"/>
+      <c r="DT86" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Job.xlsx
+++ b/data/xlsx/Job.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT86"/>
+  <dimension ref="A1:DT90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -33264,64 +33264,65 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JID_幻影飛竜</t>
+          <t>JID_エンチャント</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AID_幻影飛竜</t>
+          <t>AID_エンチャント</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MJID_PhantomFlyingDragon</t>
+          <t>附魔师</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MJID_H_PhantomFlyingDragon</t>
+          <t>灵活运用道具作战的军医。
+除了能使用运输队，还擅长以战术支援伙伴。</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>715PhantomFlyingDragon</t>
+          <t>697Enchant</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>715PhantomFlyingDragon</t>
+          <t>698Enchant</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>NoWeapon</t>
+          <t>Knife</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>龙族</t>
+          <t>气功</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>8</v>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O82" t="n">
-        <v>9999</v>
+        <v>1100</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -33339,7 +33340,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -33348,10 +33349,10 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
         <v>1</v>
@@ -33383,7 +33384,7 @@
       </c>
       <c r="AG82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="AH82" t="inlineStr">
@@ -33398,40 +33399,40 @@
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AL82" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AM82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO82" t="n">
         <v>5</v>
       </c>
       <c r="AP82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR82" t="n">
         <v>5</v>
       </c>
       <c r="AS82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AT82" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AU82" t="n">
         <v>3</v>
@@ -33440,31 +33441,31 @@
         <v>5</v>
       </c>
       <c r="AW82" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AX82" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AY82" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AZ82" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="BA82" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="BB82" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BC82" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="BD82" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BE82" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="BF82" t="n">
         <v>20</v>
@@ -33473,31 +33474,31 @@
         <v>20</v>
       </c>
       <c r="BH82" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BI82" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BJ82" t="n">
+        <v>45</v>
+      </c>
+      <c r="BK82" t="n">
         <v>50</v>
       </c>
-      <c r="BK82" t="n">
+      <c r="BL82" t="n">
+        <v>45</v>
+      </c>
+      <c r="BM82" t="n">
         <v>35</v>
       </c>
-      <c r="BL82" t="n">
+      <c r="BN82" t="n">
         <v>35</v>
       </c>
-      <c r="BM82" t="n">
-        <v>40</v>
-      </c>
-      <c r="BN82" t="n">
-        <v>50</v>
-      </c>
       <c r="BO82" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="BP82" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BQ82" t="n">
         <v>0</v>
@@ -33506,31 +33507,31 @@
         <v>0</v>
       </c>
       <c r="BS82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BU82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BV82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BX82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY82" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BZ82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CA82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB82" t="n">
         <v>0</v>
@@ -33554,10 +33555,10 @@
         <v>0</v>
       </c>
       <c r="CI82" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="CJ82" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="CK82" t="n">
         <v>-20</v>
@@ -33620,13 +33621,13 @@
         <v>0</v>
       </c>
       <c r="DE82" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="DF82" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="DG82" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="DH82" t="n">
         <v>0</v>
@@ -33642,48 +33643,61 @@
       <c r="DM82" t="inlineStr"/>
       <c r="DN82" t="inlineStr"/>
       <c r="DO82" t="inlineStr"/>
-      <c r="DP82" t="inlineStr"/>
-      <c r="DQ82" t="inlineStr"/>
+      <c r="DP82" t="inlineStr">
+        <is>
+          <t>毒消し;特効薬;魔防の薬;守備の薬;速さの薬;</t>
+        </is>
+      </c>
+      <c r="DQ82" t="inlineStr">
+        <is>
+          <t>SID_エンチャント;</t>
+        </is>
+      </c>
       <c r="DR82" t="inlineStr">
         <is>
-          <t>SID_氷の領域</t>
+          <t>运输队</t>
         </is>
       </c>
       <c r="DS82" t="inlineStr">
         <is>
-          <t>减气</t>
+          <t>自毁</t>
         </is>
       </c>
       <c r="DT82" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JID_紋章士_エーデルガルト</t>
+          <t>JID_幻影飛竜</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AID_紋章士_エーデルガルト</t>
+          <t>AID_幻影飛竜</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>纹章士</t>
+          <t>幻影飞龙</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MJID_H_EmblemB</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>在天空翱翔的飞龙之眷属。
+活动范围广，能以吐息将敌人逼入绝境。</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>715PhantomFlyingDragon</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>563Edelgard</t>
+          <t>715PhantomFlyingDragon</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -33696,11 +33710,11 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>连携</t>
+          <t>龙族</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
         <v>8</v>
@@ -33727,7 +33741,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -33745,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83" t="n">
         <v>1</v>
@@ -33767,65 +33781,65 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AG83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AI83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AK83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AL83" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ83" t="n">
         <v>8</v>
       </c>
-      <c r="AO83" t="n">
+      <c r="AR83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT83" t="n">
         <v>8</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>6</v>
       </c>
       <c r="AU83" t="n">
         <v>3</v>
@@ -33834,31 +33848,31 @@
         <v>5</v>
       </c>
       <c r="AW83" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AX83" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AY83" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AZ83" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="BA83" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="BB83" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BC83" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BD83" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BE83" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BF83" t="n">
         <v>20</v>
@@ -33870,28 +33884,28 @@
         <v>70</v>
       </c>
       <c r="BI83" t="n">
+        <v>30</v>
+      </c>
+      <c r="BJ83" t="n">
         <v>50</v>
       </c>
-      <c r="BJ83" t="n">
-        <v>60</v>
-      </c>
       <c r="BK83" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>35</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN83" t="n">
         <v>50</v>
       </c>
-      <c r="BL83" t="n">
-        <v>60</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>45</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>15</v>
-      </c>
       <c r="BO83" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BP83" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BQ83" t="n">
         <v>0</v>
@@ -33948,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="CI83" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CJ83" t="n">
         <v>-20</v>
-      </c>
-      <c r="CJ83" t="n">
-        <v>-15</v>
       </c>
       <c r="CK83" t="n">
         <v>-20</v>
@@ -34017,10 +34031,10 @@
         <v>25</v>
       </c>
       <c r="DF83" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="DG83" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="DH83" t="n">
         <v>0</v>
@@ -34038,22 +34052,30 @@
       <c r="DO83" t="inlineStr"/>
       <c r="DP83" t="inlineStr"/>
       <c r="DQ83" t="inlineStr"/>
-      <c r="DR83" t="inlineStr"/>
-      <c r="DS83" t="inlineStr"/>
+      <c r="DR83" t="inlineStr">
+        <is>
+          <t>冰之领域</t>
+        </is>
+      </c>
+      <c r="DS83" t="inlineStr">
+        <is>
+          <t>减气</t>
+        </is>
+      </c>
       <c r="DT83" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JID_紋章士_ディミトリ</t>
+          <t>JID_紋章士_エーデルガルト</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AID_紋章士_ディミトリ</t>
+          <t>AID_紋章士_エーデルガルト</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -34063,15 +34085,16 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MJID_H_EmblemB</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>514Dimitri</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>563Edelgard</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>NoWeapon</t>
@@ -34110,10 +34133,10 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -34148,12 +34171,12 @@
       </c>
       <c r="AD84" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
           <t>S</t>
-        </is>
-      </c>
-      <c r="AE84" t="inlineStr">
-        <is>
-          <t>N</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
@@ -34427,19 +34450,19 @@
       <c r="DR84" t="inlineStr"/>
       <c r="DS84" t="inlineStr"/>
       <c r="DT84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JID_紋章士_クロード</t>
+          <t>JID_紋章士_ディミトリ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AID_紋章士_クロード</t>
+          <t>AID_紋章士_ディミトリ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -34449,12 +34472,13 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MJID_H_EmblemB</t>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>515Claude</t>
+          <t>514Dimitri</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -34496,13 +34520,13 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -34534,7 +34558,7 @@
       </c>
       <c r="AD85" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AE85" t="inlineStr">
@@ -34544,7 +34568,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -34820,12 +34844,12 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JID_紋章士_チキ</t>
+          <t>JID_紋章士_クロード</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AID_紋章士_チキ</t>
+          <t>AID_紋章士_クロード</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -34835,15 +34859,16 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MJID_H_EmblemB</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>560Tiki</t>
-        </is>
-      </c>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>515Claude</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>NoWeapon</t>
@@ -34854,7 +34879,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>龙族</t>
+          <t>连携</t>
         </is>
       </c>
       <c r="K86" t="n">
@@ -34888,7 +34913,7 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -34903,7 +34928,7 @@
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="n">
         <v>1</v>
@@ -34930,7 +34955,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -34955,35 +34980,35 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AL86" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP86" t="n">
         <v>5</v>
       </c>
-      <c r="AN86" t="n">
+      <c r="AQ86" t="n">
         <v>5</v>
       </c>
-      <c r="AO86" t="n">
+      <c r="AR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT86" t="n">
         <v>6</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>3</v>
       </c>
       <c r="AU86" t="n">
         <v>3</v>
@@ -34992,28 +35017,28 @@
         <v>5</v>
       </c>
       <c r="AW86" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AX86" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA86" t="n">
         <v>37</v>
       </c>
-      <c r="AY86" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>54</v>
-      </c>
       <c r="BB86" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="BC86" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BD86" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="BE86" t="n">
         <v>13</v>
@@ -35025,31 +35050,31 @@
         <v>20</v>
       </c>
       <c r="BH86" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BI86" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>50</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM86" t="n">
         <v>45</v>
       </c>
-      <c r="BJ86" t="n">
-        <v>50</v>
-      </c>
-      <c r="BK86" t="n">
+      <c r="BN86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO86" t="n">
         <v>45</v>
       </c>
-      <c r="BL86" t="n">
-        <v>75</v>
-      </c>
-      <c r="BM86" t="n">
-        <v>35</v>
-      </c>
-      <c r="BN86" t="n">
-        <v>45</v>
-      </c>
-      <c r="BO86" t="n">
-        <v>60</v>
-      </c>
       <c r="BP86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BQ86" t="n">
         <v>0</v>
@@ -35094,19 +35119,19 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI86" t="n">
         <v>-20</v>
-      </c>
-      <c r="CF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI86" t="n">
-        <v>-25</v>
       </c>
       <c r="CJ86" t="n">
         <v>-15</v>
@@ -35172,13 +35197,13 @@
         <v>0</v>
       </c>
       <c r="DE86" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="DF86" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="DG86" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="DH86" t="n">
         <v>0</v>
@@ -35199,7 +35224,1555 @@
       <c r="DR86" t="inlineStr"/>
       <c r="DS86" t="inlineStr"/>
       <c r="DT86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JID_紋章士_チキ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AID_紋章士_チキ</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>560Tiki</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>龙族</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>8</v>
+      </c>
+      <c r="M87" t="n">
+        <v>40</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AL87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>54</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>55</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>50</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>75</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>45</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>60</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE87" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI87" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CJ87" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK87" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ87" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA87" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB87" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC87" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE87" t="n">
+        <v>20</v>
+      </c>
+      <c r="DF87" t="n">
+        <v>20</v>
+      </c>
+      <c r="DG87" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK87" t="inlineStr"/>
+      <c r="DL87" t="inlineStr"/>
+      <c r="DM87" t="inlineStr"/>
+      <c r="DN87" t="inlineStr"/>
+      <c r="DO87" t="inlineStr"/>
+      <c r="DP87" t="inlineStr"/>
+      <c r="DQ87" t="inlineStr"/>
+      <c r="DR87" t="inlineStr"/>
+      <c r="DS87" t="inlineStr"/>
+      <c r="DT87" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>JID_紋章士_ヘクトル</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AID_紋章士_ヘクトル</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>510Hector</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>重装</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8</v>
+      </c>
+      <c r="M88" t="n">
+        <v>40</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>72</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>42</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>55</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>40</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>35</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>75</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>25</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>25</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>25</v>
+      </c>
+      <c r="BQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE88" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI88" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CJ88" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK88" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA88" t="n">
+        <v>20</v>
+      </c>
+      <c r="DB88" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC88" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE88" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF88" t="n">
+        <v>15</v>
+      </c>
+      <c r="DG88" t="n">
+        <v>20</v>
+      </c>
+      <c r="DH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK88" t="inlineStr"/>
+      <c r="DL88" t="inlineStr"/>
+      <c r="DM88" t="inlineStr"/>
+      <c r="DN88" t="inlineStr"/>
+      <c r="DO88" t="inlineStr"/>
+      <c r="DP88" t="inlineStr"/>
+      <c r="DQ88" t="inlineStr"/>
+      <c r="DR88" t="inlineStr"/>
+      <c r="DS88" t="inlineStr"/>
+      <c r="DT88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>JID_紋章士_セネリオ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>AID_紋章士_セネリオ</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>511Senerio</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>魔道</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>8</v>
+      </c>
+      <c r="M89" t="n">
+        <v>40</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL89" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>57</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>46</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>51</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>25</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>65</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>70</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>70</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE89" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI89" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>-25</v>
+      </c>
+      <c r="CL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA89" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB89" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC89" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE89" t="n">
+        <v>20</v>
+      </c>
+      <c r="DF89" t="n">
+        <v>25</v>
+      </c>
+      <c r="DG89" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK89" t="inlineStr"/>
+      <c r="DL89" t="inlineStr"/>
+      <c r="DM89" t="inlineStr"/>
+      <c r="DN89" t="inlineStr"/>
+      <c r="DO89" t="inlineStr"/>
+      <c r="DP89" t="inlineStr"/>
+      <c r="DQ89" t="inlineStr"/>
+      <c r="DR89" t="inlineStr"/>
+      <c r="DS89" t="inlineStr"/>
+      <c r="DT89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JID_紋章士_カミラ</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>AID_紋章士_カミラ</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>纹章士</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>寄宿在手镯中的异界英雄。
+拥有超越人类智慧的力量。</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>561Camilla</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>NoWeapon</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>飞行</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8</v>
+      </c>
+      <c r="M90" t="n">
+        <v>40</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL90" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>62</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>38</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>49</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>38</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>60</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>45</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>60</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE90" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI90" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CK90" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ90" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA90" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB90" t="n">
+        <v>15</v>
+      </c>
+      <c r="DC90" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE90" t="n">
+        <v>20</v>
+      </c>
+      <c r="DF90" t="n">
+        <v>20</v>
+      </c>
+      <c r="DG90" t="n">
+        <v>20</v>
+      </c>
+      <c r="DH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK90" t="inlineStr"/>
+      <c r="DL90" t="inlineStr"/>
+      <c r="DM90" t="inlineStr"/>
+      <c r="DN90" t="inlineStr"/>
+      <c r="DO90" t="inlineStr"/>
+      <c r="DP90" t="inlineStr"/>
+      <c r="DQ90" t="inlineStr"/>
+      <c r="DR90" t="inlineStr"/>
+      <c r="DS90" t="inlineStr"/>
+      <c r="DT90" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
